--- a/analysis/table1.xlsx
+++ b/analysis/table1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,17 +380,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SSD, kg/s</t>
+          <t>Mean annual suspended sediment discharge, kg/s</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mean_n</t>
+          <t>Number of mean annual SSD values, years</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>max_n</t>
+          <t>Years range</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -407,28 +407,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>r.Argun - s.Dubayurt</t>
+          <t>r.Baksan - st.Prokhladnaya</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arg-Du</t>
+          <t>Bak-Pr</t>
         </is>
       </c>
       <c r="C2">
-        <v>3190</v>
+        <v>6800</v>
       </c>
       <c r="D2">
-        <v>340</v>
+        <v>166</v>
       </c>
       <c r="E2">
-        <v>99.12916666666666</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F2">
-        <v>48</v>
-      </c>
-      <c r="G2">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>reg. by Baksanskaya HPP since 1936</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -439,32 +446,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>r.Baksan - st.Prokhladnaya</t>
+          <t>r.Malka - kh.Pavlogradskiy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bak-Pr</t>
+          <t>Mal-Pa</t>
         </is>
       </c>
       <c r="C3">
-        <v>6800</v>
+        <v>2000</v>
       </c>
       <c r="D3">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="E3">
-        <v>73.44230769230769</v>
+        <v>14.9</v>
       </c>
       <c r="F3">
         <v>52</v>
       </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>reg. by Baksanskaya HPP since 1936</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -476,28 +480,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>r.Malka - kh.Pavlogradskiy</t>
+          <t>r.Malka - st.Prokhladnaya</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mal-Pa</t>
+          <t>Mal-Pr</t>
         </is>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>9820</v>
       </c>
       <c r="D4">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="E4">
-        <v>14.93653846153846</v>
+        <v>143</v>
       </c>
       <c r="F4">
-        <v>52</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>reg. by Baksanskaya HPP since 1936</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -508,32 +519,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>r.Malka - st.Prokhladnaya</t>
+          <t>r.Sunzha - s.Braguny</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mal-Pr</t>
+          <t>Sun-Br</t>
         </is>
       </c>
       <c r="C5">
-        <v>9820</v>
+        <v>12200</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>143.2317073170732</v>
+        <v>277</v>
       </c>
       <c r="F5">
-        <v>82</v>
-      </c>
-      <c r="G5">
-        <v>52</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>reg. by Baksanskaya HPP since 1936</t>
+        <v>59</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1925-1988</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -545,28 +553,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>r.Sunzha - s.Braguny</t>
+          <t>r.Sunzha - g.Groznyy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sun-Br</t>
+          <t>Sun-Gr</t>
         </is>
       </c>
       <c r="C6">
-        <v>12200</v>
+        <v>4820</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>276.8983050847457</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F6">
-        <v>59</v>
-      </c>
-      <c r="G6">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -577,28 +587,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>r.Sunzha - g.Groznyy</t>
+          <t>r.Terek - st.Chernoyarskaya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sun-Gr</t>
+          <t>Ter-Ch</t>
         </is>
       </c>
       <c r="C7">
-        <v>4820</v>
+        <v>19600</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="E7">
-        <v>69.07692307692308</v>
+        <v>207</v>
       </c>
       <c r="F7">
         <v>52</v>
       </c>
-      <c r="G7">
-        <v>30</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>reg. by Gizeldonskaia HPP since 1934</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -609,28 +626,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>r.Terek - st.Chernoyarskaya</t>
+          <t>r.Terek - s.Elʹkhotovo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ter-Ch</t>
+          <t>Ter-El</t>
         </is>
       </c>
       <c r="C8">
-        <v>19600</v>
+        <v>6490</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="E8">
-        <v>207.1923076923077</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F8">
         <v>52</v>
       </c>
-      <c r="G8">
-        <v>15</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -646,32 +665,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>r.Terek - s.Elʹkhotovo</t>
+          <t>r.Terek - st-tsa. Kargalinskaya</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ter-El</t>
+          <t>Ter-Ka</t>
         </is>
       </c>
       <c r="C9">
-        <v>6490</v>
+        <v>37400</v>
       </c>
       <c r="D9">
-        <v>299</v>
+        <v>-17</v>
       </c>
       <c r="E9">
-        <v>66.55769230769231</v>
+        <v>494</v>
       </c>
       <c r="F9">
-        <v>52</v>
-      </c>
-      <c r="G9">
-        <v>22</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>reg. by Gizeldonskaia HPP since 1934</t>
+        <v>53</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1925-1984</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -683,28 +699,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>r.Terek - st-tsa. Kargalinskaya</t>
+          <t>r.Terek - st.Kotlyarevskaya</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ter-Ka</t>
+          <t>Ter-Ko</t>
         </is>
       </c>
       <c r="C10">
-        <v>37400</v>
+        <v>8920</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>204</v>
       </c>
       <c r="E10">
-        <v>494.0471698113208</v>
+        <v>142</v>
       </c>
       <c r="F10">
-        <v>53</v>
-      </c>
-      <c r="G10">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>reg. by Gizeldonskaia HPP since 1934</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -715,28 +738,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>r.Terek - st.Kotlyarevskaya</t>
+          <t>r.Terek - g. Mozdok</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ter-Ko</t>
+          <t>Ter-Mo</t>
         </is>
       </c>
       <c r="C11">
-        <v>8920</v>
+        <v>20600</v>
       </c>
       <c r="D11">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="E11">
-        <v>142.4246341463415</v>
+        <v>256</v>
       </c>
       <c r="F11">
-        <v>82</v>
-      </c>
-      <c r="G11">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -752,32 +777,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>r.Terek - g. Mozdok</t>
+          <t>r.Terek - s.Stepnoye</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ter-Mo</t>
+          <t>Ter-St</t>
         </is>
       </c>
       <c r="C12">
-        <v>20600</v>
+        <v>35400</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>255.5769230769231</v>
+        <v>565</v>
       </c>
       <c r="F12">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>23</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>reg. by Gizeldonskaia HPP since 1934</t>
+        <v>57</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1925-1987</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -789,64 +811,73 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>r.Terek - s.Stepnoye</t>
+          <t>r.Ardon - s.Tamisk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ter-St</t>
+          <t>Ard-Ta</t>
         </is>
       </c>
       <c r="C13">
-        <v>35400</v>
+        <v>1080</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>730</v>
       </c>
       <c r="E13">
-        <v>565.4912280701755</v>
+        <v>21.5</v>
       </c>
       <c r="F13">
-        <v>57</v>
-      </c>
-      <c r="G13">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1925-2002</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>reg. by Zaramagskaia HPP since 2019</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>&lt; 500</t>
+          <t>500-1000</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>r.Ardon - s.Tamisk</t>
+          <t>r.Baksan - s.Zayukovo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ard-Ta</t>
+          <t>Bak-Za</t>
         </is>
       </c>
       <c r="C14">
-        <v>1080</v>
+        <v>2100</v>
       </c>
       <c r="D14">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="E14">
-        <v>21.4978125</v>
+        <v>20.7</v>
       </c>
       <c r="F14">
-        <v>64</v>
-      </c>
-      <c r="G14">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>reg. by Zaramagskaia HPP since 2019</t>
+          <t>reg. by Baksanskaya HPP since 1936</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -858,28 +889,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>r.Argun - s.Sovet·skoye</t>
+          <t>r.Belaya - s.Kora - Ursdon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arg-So</t>
+          <t>Bel-Ko</t>
         </is>
       </c>
       <c r="C15">
-        <v>1860</v>
+        <v>304</v>
       </c>
       <c r="D15">
-        <v>500</v>
+        <v>607</v>
       </c>
       <c r="E15">
-        <v>88.35908888888883</v>
+        <v>2.13</v>
       </c>
       <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -890,32 +923,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>r.Baksan - s.Kyzburun</t>
+          <t>r.Cherek Balkarskiy - pos.Babugent</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bak-Ky</t>
+          <t>Che-Ba</t>
         </is>
       </c>
       <c r="C16">
-        <v>2190</v>
+        <v>695</v>
       </c>
       <c r="D16">
-        <v>577</v>
+        <v>756</v>
       </c>
       <c r="E16">
-        <v>25.63830555555555</v>
+        <v>15.7</v>
       </c>
       <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>11</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>reg. by Baksanskaya HPP since 1936</t>
+        <v>56</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1928-2018</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -927,32 +957,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>r.Baksan - s.Zayukovo</t>
+          <t>r.Cherek - s.Sovet·skoye</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bak-Za</t>
+          <t>Che-So</t>
         </is>
       </c>
       <c r="C17">
-        <v>2100</v>
+        <v>1350</v>
       </c>
       <c r="D17">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="E17">
-        <v>20.70192307692308</v>
+        <v>20.3</v>
       </c>
       <c r="F17">
         <v>52</v>
       </c>
-      <c r="G17">
-        <v>22</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>reg. by Baksanskaya HPP since 1936</t>
+          <t>reg. by Kashkhatau HPP since 2010</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -964,28 +996,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>r.Belaya - s.Kora - Ursdon</t>
+          <t>r.Chegem - s.Nizhniy Chegem</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bel-Ko</t>
+          <t>Cheg-Nc</t>
         </is>
       </c>
       <c r="C18">
-        <v>304</v>
+        <v>739</v>
       </c>
       <c r="D18">
-        <v>607</v>
+        <v>908</v>
       </c>
       <c r="E18">
-        <v>2.126743902439024</v>
+        <v>5.99</v>
       </c>
       <c r="F18">
         <v>82</v>
       </c>
-      <c r="G18">
-        <v>44</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -996,28 +1030,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>r.Cherek Balkarskiy - pos.Babugent</t>
+          <t>r.Fiagdon - s.Gusra</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Che-Ba</t>
+          <t>Fia-Gu</t>
         </is>
       </c>
       <c r="C19">
-        <v>695</v>
+        <v>398</v>
       </c>
       <c r="D19">
-        <v>756</v>
+        <v>920</v>
       </c>
       <c r="E19">
-        <v>15.73035714285714</v>
+        <v>3.37</v>
       </c>
       <c r="F19">
-        <v>56</v>
-      </c>
-      <c r="G19">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1925-2001</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1028,32 +1064,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>r.Cherek - s.Sovet·skoye</t>
+          <t>r.Fiagdon - s.Tagardon</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Che-So</t>
+          <t>Fia-Ta</t>
         </is>
       </c>
       <c r="C20">
-        <v>1350</v>
+        <v>410</v>
       </c>
       <c r="D20">
-        <v>709</v>
+        <v>842</v>
       </c>
       <c r="E20">
-        <v>20.275</v>
+        <v>3.05</v>
       </c>
       <c r="F20">
-        <v>52</v>
-      </c>
-      <c r="G20">
-        <v>13</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>reg. by Kashkhatau HPP since 2010</t>
+        <v>74</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1065,28 +1098,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>r.Chegem - s.Nizhniy Chegem</t>
+          <t>r.Gizelʹdon - s.Gizelʹ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cheg-Nc</t>
+          <t>Giz-Gi</t>
         </is>
       </c>
       <c r="C21">
-        <v>739</v>
+        <v>410</v>
       </c>
       <c r="D21">
-        <v>908</v>
+        <v>672</v>
       </c>
       <c r="E21">
-        <v>5.986463414634146</v>
+        <v>2.9</v>
       </c>
       <c r="F21">
-        <v>82</v>
-      </c>
-      <c r="G21">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2003-2018</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>reg. by Gizeldonskaia HPP since 1934</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1097,28 +1137,30 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>r.Fiagdon - s.Gusra</t>
+          <t>r.Kambileyevka - s.Olʹginskoye</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fia-Gu</t>
+          <t>Kam-Ol</t>
         </is>
       </c>
       <c r="C22">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="D22">
-        <v>920</v>
+        <v>567</v>
       </c>
       <c r="E22">
-        <v>3.3734375</v>
+        <v>1.62</v>
       </c>
       <c r="F22">
-        <v>64</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1129,28 +1171,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>r.Fiagdon - s.Tagardon</t>
+          <t>r.Malka - s.Kamennomost·skoye</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fia-Ta</t>
+          <t>Mal-Ka</t>
         </is>
       </c>
       <c r="C23">
-        <v>410</v>
+        <v>1540</v>
       </c>
       <c r="D23">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="E23">
-        <v>3.054054054054054</v>
+        <v>6.17</v>
       </c>
       <c r="F23">
-        <v>74</v>
-      </c>
-      <c r="G23">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1161,32 +1205,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>r.Gizelʹdon - s.Gizelʹ</t>
+          <t>r.Malka - s.Khabaz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Giz-Gi</t>
+          <t>Mal-Kh</t>
         </is>
       </c>
       <c r="C24">
-        <v>410</v>
+        <v>1080</v>
       </c>
       <c r="D24">
-        <v>672</v>
+        <v>938</v>
       </c>
       <c r="E24">
-        <v>2.895384615384615</v>
+        <v>5.11</v>
       </c>
       <c r="F24">
-        <v>13</v>
-      </c>
-      <c r="G24">
-        <v>13</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>reg. by Gizeldonskaia HPP since 1934</t>
+        <v>52</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1198,28 +1239,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>r.Kambileyevka - s.Olʹginskoye</t>
+          <t>r.Terek - g. Vladikavkaz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kam-Ol</t>
+          <t>Ter-Vl</t>
         </is>
       </c>
       <c r="C25">
-        <v>359</v>
+        <v>1490</v>
       </c>
       <c r="D25">
-        <v>567</v>
+        <v>692</v>
       </c>
       <c r="E25">
-        <v>1.620704545454546</v>
+        <v>72.7</v>
       </c>
       <c r="F25">
-        <v>66</v>
-      </c>
-      <c r="G25">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1925-2018</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>reg. by Dzaudzhikauskaia HPP since 1948</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1230,28 +1278,30 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>r.Malka - s.Kamennomost·skoye</t>
+          <t>r.Urukh - s.Khaznidon</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mal-Ka</t>
+          <t>Uru-Kh</t>
         </is>
       </c>
       <c r="C26">
-        <v>1540</v>
+        <v>1150</v>
       </c>
       <c r="D26">
-        <v>810</v>
+        <v>675</v>
       </c>
       <c r="E26">
-        <v>6.17037037037037</v>
+        <v>12.9</v>
       </c>
       <c r="F26">
-        <v>81</v>
-      </c>
-      <c r="G26">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1966-2018</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1262,165 +1312,170 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>r.Malka - s.Khabaz</t>
+          <t>r.Ardon - s.Nizhniy Zaromag</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mal-Kh</t>
+          <t>Ard-Nz</t>
         </is>
       </c>
       <c r="C27">
-        <v>1080</v>
+        <v>552</v>
       </c>
       <c r="D27">
-        <v>938</v>
+        <v>1730</v>
       </c>
       <c r="E27">
-        <v>5.111538461538462</v>
+        <v>3.25</v>
       </c>
       <c r="F27">
         <v>52</v>
       </c>
-      <c r="G27">
-        <v>5</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>reg. by Zaramagskaia HPP since 2019</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>500-1000</t>
+          <t>&gt; 1000</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>r.Nalʹchik - s.Belaya Rechka</t>
+          <t>r.Chegem - s.Verkhniy Chegem</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nal-Be</t>
+          <t>Cheg-Vc</t>
         </is>
       </c>
       <c r="C28">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="D28">
-        <v>747</v>
+        <v>1608</v>
       </c>
       <c r="E28">
-        <v>5.704352564102559</v>
+        <v>2.24</v>
       </c>
       <c r="F28">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>500-1000</t>
+          <t>&gt; 1000</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>r.Terek - g. Vladikavkaz</t>
+          <t>r.Fiagdon - s.Verkhniy Fiagdon</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ter-Vl</t>
+          <t>Fia-Vf</t>
         </is>
       </c>
       <c r="C29">
-        <v>1490</v>
+        <v>238</v>
       </c>
       <c r="D29">
-        <v>692</v>
+        <v>1227</v>
       </c>
       <c r="E29">
-        <v>72.7148</v>
+        <v>1.01</v>
       </c>
       <c r="F29">
-        <v>75</v>
-      </c>
-      <c r="G29">
-        <v>60</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>reg. by Dzaudzhikauskaia HPP since 1948</t>
+        <v>10</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2007-2018</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>500-1000</t>
+          <t>&gt; 1000</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>r.Urukh - s.Khaznidon</t>
+          <t>r.Genaldon - s.Tmenikau</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Uru-Kh</t>
+          <t>Gen-Tm</t>
         </is>
       </c>
       <c r="C30">
-        <v>1150</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>675</v>
+        <v>1458</v>
       </c>
       <c r="E30">
-        <v>12.935025</v>
+        <v>3.06</v>
       </c>
       <c r="F30">
-        <v>38</v>
-      </c>
-      <c r="G30">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>500-1000</t>
+          <t>&gt; 1000</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>r.Ardon - s.Nizhniy Zaromag</t>
+          <t>r.Gizelʹdon - s.Dargavs</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ard-Nz</t>
+          <t>Giz-Da</t>
         </is>
       </c>
       <c r="C31">
-        <v>552</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>1730</v>
+        <v>1442</v>
       </c>
       <c r="E31">
-        <v>3.246153846153846</v>
+        <v>1.73</v>
       </c>
       <c r="F31">
         <v>52</v>
       </c>
-      <c r="G31">
-        <v>7</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>reg. by Zaramagskaia HPP since 2019</t>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1432,28 +1487,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>r.Baksan - g.Tyrnauz</t>
+          <t>r.Gizelʹdon - s.Verkhnyaya Kobanʹ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bak-Ty</t>
+          <t>Giz-Vk</t>
         </is>
       </c>
       <c r="C32">
-        <v>838</v>
+        <v>160</v>
       </c>
       <c r="D32">
-        <v>1319</v>
+        <v>1396</v>
       </c>
       <c r="E32">
-        <v>6.974599999999994</v>
+        <v>1.35</v>
       </c>
       <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>reg. by Gizeldonskaia HPP since 1934</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1464,28 +1526,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>r.Chegem - s.Verkhniy Chegem</t>
+          <t>r.Terek - s.Kazbegi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cheg-Vc</t>
+          <t>Ter-Kaz</t>
         </is>
       </c>
       <c r="C33">
-        <v>433</v>
+        <v>778</v>
       </c>
       <c r="D33">
-        <v>1608</v>
+        <v>1738</v>
       </c>
       <c r="E33">
-        <v>2.238461538461539</v>
+        <v>31.9</v>
       </c>
       <c r="F33">
-        <v>52</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1925-1989</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1496,200 +1560,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>r.Fiagdon - s.Verkhniy Fiagdon</t>
+          <t>r.Terek - s.Nizhniy Lars</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fia-Vf</t>
+          <t>Ter-Nl</t>
         </is>
       </c>
       <c r="C34">
-        <v>238</v>
+        <v>1010</v>
       </c>
       <c r="D34">
-        <v>1227</v>
+        <v>1056</v>
       </c>
       <c r="E34">
-        <v>1.01</v>
+        <v>35.3</v>
       </c>
       <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1925-1979</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>reg. by Dariali HPP since 2015</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
-        <is>
-          <t>&gt; 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>r.Genaldon - s.Tmenikau</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Gen-Tm</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>56</v>
-      </c>
-      <c r="D35">
-        <v>1458</v>
-      </c>
-      <c r="E35">
-        <v>3.063076923076923</v>
-      </c>
-      <c r="F35">
-        <v>52</v>
-      </c>
-      <c r="G35">
-        <v>12</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>&gt; 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>r.Gizelʹdon - s.Dargavs</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Giz-Da</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>129</v>
-      </c>
-      <c r="D36">
-        <v>1442</v>
-      </c>
-      <c r="E36">
-        <v>1.729423076923077</v>
-      </c>
-      <c r="F36">
-        <v>52</v>
-      </c>
-      <c r="G36">
-        <v>15</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>&gt; 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>r.Gizelʹdon - s.Verkhnyaya Kobanʹ</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Giz-Vk</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>160</v>
-      </c>
-      <c r="D37">
-        <v>1396</v>
-      </c>
-      <c r="E37">
-        <v>1.346538461538462</v>
-      </c>
-      <c r="F37">
-        <v>52</v>
-      </c>
-      <c r="G37">
-        <v>7</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>reg. by Gizeldonskaia HPP since 1934</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>&gt; 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>r.Terek - s.Kazbegi</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Ter-Kaz</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>778</v>
-      </c>
-      <c r="D38">
-        <v>1738</v>
-      </c>
-      <c r="E38">
-        <v>31.88571428571429</v>
-      </c>
-      <c r="F38">
-        <v>56</v>
-      </c>
-      <c r="G38">
-        <v>12</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>&gt; 1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>r.Terek - s.Nizhniy Lars</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ter-Nl</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>1010</v>
-      </c>
-      <c r="D39">
-        <v>1056</v>
-      </c>
-      <c r="E39">
-        <v>35.31372549019608</v>
-      </c>
-      <c r="F39">
-        <v>51</v>
-      </c>
-      <c r="G39">
-        <v>8</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>reg. by Dariali HPP since 2015</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>

--- a/analysis/table1.xlsx
+++ b/analysis/table1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,25 +380,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Alt. range</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mean annual suspended sediment discharge, kg/s</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Number of mean annual SSD values, years</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Years range</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>alt_group</t>
         </is>
@@ -421,23 +426,28 @@
       <c r="D2">
         <v>166</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>145-5587</t>
+        </is>
+      </c>
+      <c r="F2">
         <v>73.40000000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>52</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>reg. by Baksanskaya HPP since 1936</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -460,18 +470,23 @@
       <c r="D3">
         <v>294</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>291-5588</t>
+        </is>
+      </c>
+      <c r="F3">
         <v>14.9</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>52</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -494,23 +509,28 @@
       <c r="D4">
         <v>165</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>145-5588</t>
+        </is>
+      </c>
+      <c r="F4">
         <v>143</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>82</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>reg. by Baksanskaya HPP since 1936</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -533,18 +553,23 @@
       <c r="D5">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8-4340</t>
+        </is>
+      </c>
+      <c r="F5">
         <v>277</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>59</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>1925-1988</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -567,18 +592,23 @@
       <c r="D6">
         <v>110</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>101-4176</t>
+        </is>
+      </c>
+      <c r="F6">
         <v>69.09999999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>52</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -601,23 +631,28 @@
       <c r="D7">
         <v>143</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>109-5588</t>
+        </is>
+      </c>
+      <c r="F7">
         <v>207</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>52</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>reg. by Gizeldonskaia HPP since 1934</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -640,23 +675,28 @@
       <c r="D8">
         <v>299</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>288-4954</t>
+        </is>
+      </c>
+      <c r="F8">
         <v>66.59999999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>52</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>reg. by Gizeldonskaia HPP since 1934</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -679,18 +719,23 @@
       <c r="D9">
         <v>-17</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-30-5588</t>
+        </is>
+      </c>
+      <c r="F9">
         <v>494</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>53</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>1925-1984</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -713,23 +758,28 @@
       <c r="D10">
         <v>204</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>199-4954</t>
+        </is>
+      </c>
+      <c r="F10">
         <v>142</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>82</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>reg. by Gizeldonskaia HPP since 1934</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -752,23 +802,28 @@
       <c r="D11">
         <v>110</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96-5588</t>
+        </is>
+      </c>
+      <c r="F11">
         <v>256</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>52</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>reg. by Gizeldonskaia HPP since 1934</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -791,18 +846,23 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-8-5588</t>
+        </is>
+      </c>
+      <c r="F12">
         <v>565</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>1925-1987</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>&lt; 500</t>
         </is>
@@ -825,23 +885,28 @@
       <c r="D13">
         <v>730</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>711-4322</t>
+        </is>
+      </c>
+      <c r="F13">
         <v>21.5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>64</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>1925-2002</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>reg. by Zaramagskaia HPP since 2019</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -864,23 +929,28 @@
       <c r="D14">
         <v>673</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>650-5587</t>
+        </is>
+      </c>
+      <c r="F14">
         <v>20.7</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>52</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>reg. by Baksanskaya HPP since 1936</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -903,18 +973,23 @@
       <c r="D15">
         <v>607</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>578-3294</t>
+        </is>
+      </c>
+      <c r="F15">
         <v>2.13</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>82</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -937,18 +1012,23 @@
       <c r="D16">
         <v>756</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>735-4556</t>
+        </is>
+      </c>
+      <c r="F16">
         <v>15.7</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>56</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>1928-2018</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -971,23 +1051,28 @@
       <c r="D17">
         <v>709</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>664-4872</t>
+        </is>
+      </c>
+      <c r="F17">
         <v>20.3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>52</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>reg. by Kashkhatau HPP since 2010</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1010,18 +1095,23 @@
       <c r="D18">
         <v>908</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>854-4215</t>
+        </is>
+      </c>
+      <c r="F18">
         <v>5.99</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>82</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1044,18 +1134,23 @@
       <c r="D19">
         <v>920</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>866-4212</t>
+        </is>
+      </c>
+      <c r="F19">
         <v>3.37</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>64</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>1925-2001</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1078,18 +1173,23 @@
       <c r="D20">
         <v>842</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>807-4212</t>
+        </is>
+      </c>
+      <c r="F20">
         <v>3.05</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>74</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1112,23 +1212,28 @@
       <c r="D21">
         <v>672</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>671-4565</t>
+        </is>
+      </c>
+      <c r="F21">
         <v>2.9</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>13</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>2003-2018</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>reg. by Gizeldonskaia HPP since 1934</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1151,18 +1256,23 @@
       <c r="D22">
         <v>567</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>567-3088</t>
+        </is>
+      </c>
+      <c r="F22">
         <v>1.62</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>66</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1185,18 +1295,23 @@
       <c r="D23">
         <v>810</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>793-5588</t>
+        </is>
+      </c>
+      <c r="F23">
         <v>6.17</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>81</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1219,18 +1334,23 @@
       <c r="D24">
         <v>938</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>912-5588</t>
+        </is>
+      </c>
+      <c r="F24">
         <v>5.11</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>52</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1253,23 +1373,28 @@
       <c r="D25">
         <v>692</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>685-4954</t>
+        </is>
+      </c>
+      <c r="F25">
         <v>72.7</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>75</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>1925-2018</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>reg. by Dzaudzhikauskaia HPP since 1948</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1292,18 +1417,23 @@
       <c r="D26">
         <v>675</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>654-4320</t>
+        </is>
+      </c>
+      <c r="F26">
         <v>12.9</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>38</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>1966-2018</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>500-1000</t>
         </is>
@@ -1326,23 +1456,28 @@
       <c r="D27">
         <v>1730</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1666-4213</t>
+        </is>
+      </c>
+      <c r="F27">
         <v>3.25</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>52</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>reg. by Zaramagskaia HPP since 2019</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
@@ -1365,18 +1500,23 @@
       <c r="D28">
         <v>1608</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1536-4215</t>
+        </is>
+      </c>
+      <c r="F28">
         <v>2.24</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>52</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
@@ -1399,18 +1539,23 @@
       <c r="D29">
         <v>1227</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1198-4212</t>
+        </is>
+      </c>
+      <c r="F29">
         <v>1.01</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>2007-2018</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
@@ -1433,18 +1578,23 @@
       <c r="D30">
         <v>1458</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1401-4529</t>
+        </is>
+      </c>
+      <c r="F30">
         <v>3.06</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>52</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
@@ -1467,18 +1617,23 @@
       <c r="D31">
         <v>1442</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1434-4565</t>
+        </is>
+      </c>
+      <c r="F31">
         <v>1.73</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>52</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
@@ -1501,23 +1656,28 @@
       <c r="D32">
         <v>1396</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1357-4565</t>
+        </is>
+      </c>
+      <c r="F32">
         <v>1.35</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>52</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>reg. by Gizeldonskaia HPP since 1934</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
@@ -1540,18 +1700,23 @@
       <c r="D33">
         <v>1738</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1719-4514</t>
+        </is>
+      </c>
+      <c r="F33">
         <v>31.9</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>56</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>1925-1989</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
@@ -1574,23 +1739,28 @@
       <c r="D34">
         <v>1056</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1019-4954</t>
+        </is>
+      </c>
+      <c r="F34">
         <v>35.3</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>51</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>1925-1979</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>reg. by Dariali HPP since 2015</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>&gt; 1000</t>
         </is>
